--- a/csv/locations_source.xlsx
+++ b/csv/locations_source.xlsx
@@ -20,24 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
-  <si>
-    <t xml:space="preserve">КС-5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЭБ КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЭБ КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КНС КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УНС КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Слесарная мастерская КС-5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+  <si>
+    <t xml:space="preserve">КЦ-5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЭБ КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЭБ КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КНС КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УНС КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слесарная мастерская КЦ-5</t>
   </si>
   <si>
     <t xml:space="preserve">БПМ №2</t>
@@ -46,46 +46,46 @@
     <t xml:space="preserve">БПМ №3</t>
   </si>
   <si>
-    <t xml:space="preserve">Склад ГСМ КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маслохозяйство КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок пылеуловителей КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок пылеуловителей КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Буферная (подземная) ёмкость КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Буферная (подземная) ёмкость КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надземная ёмкость КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надземная ёмкость КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БПТПГ КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БПТПГ КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЭС-630 КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭД-500 КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗХРД КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сварпост КС-5</t>
+    <t xml:space="preserve">Склад ГСМ КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маслохозяйство КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок пылеуловителей КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок пылеуловителей КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буферная (подземная) ёмкость КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буферная (подземная) ёмкость КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надземная ёмкость КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надземная ёмкость КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БПТПГ КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БПТПГ КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЭС-630 КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭД-500 КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗХРД КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сварпост КЦ-5</t>
   </si>
   <si>
     <t xml:space="preserve">ГПА 52</t>
@@ -115,94 +115,121 @@
     <t xml:space="preserve">ГПА 65</t>
   </si>
   <si>
-    <t xml:space="preserve">Крановый узел №36 КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крановый узел №36 КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крановый узел №71 КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крановый узел №81 КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВО газа КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВО газа КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крановый узел №37 КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крановый узел №37 КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крановый узел №38 КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крановый узел №38 КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пожарные проезды КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пожарные проезды КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система тепловодоснабжения КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система тепловодоснабжения КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Узел подключения КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Узел подключения КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОК КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОК КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЮОК КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЮОК КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северная перемычка КС-5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северная перемычка КС-6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южная перемычка КС-5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южная перемычка КС-6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ёмкость сбора ветоши КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ёмкость сбора ветоши КС-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадка сбора бытовых отходов КС-5</t>
+    <t xml:space="preserve">Крановый узел №36 КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый узел №36 КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый узел №71 КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый узел №81 КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВО газа КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВО газа КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый узел №37 КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый узел №37 КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый узел №38 КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый узел №38 КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожарные проезды КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожарные проезды КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система тепловодоснабжения КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система тепловодоснабжения КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узел подключения КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узел подключения КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОК КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОК КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮОК КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮОК КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Северная перемычка КЦ-5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Северная перемычка КЦ-6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Южная перемычка КЦ-5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Южная перемычка КЦ-6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ёмкость сбора ветоши КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ёмкость сбора ветоши КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Площадка сбора бытовых отходов КЦ-5</t>
   </si>
   <si>
     <t xml:space="preserve">Документация</t>
   </si>
   <si>
-    <t xml:space="preserve">Ограждение территории КС-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ограждение территории КС-6</t>
+    <t xml:space="preserve">Ограждение территории КЦ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограждение территории КЦ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЦ-1,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГПА 13</t>
   </si>
 </sst>
 </file>
@@ -306,15 +333,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.21"/>
   </cols>
   <sheetData>
@@ -796,6 +823,70 @@
       </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
